--- a/data/trans_bre/P16A10-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16A10-Provincia-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>0.1338990739298794</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-2.219192443377486</v>
+        <v>-2.219192443377489</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.3240958560480912</v>
@@ -649,7 +649,7 @@
         <v>0.03055311699215113</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.3871321354909854</v>
+        <v>-0.3871321354909857</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.816640293085272</v>
+        <v>-4.789789768779821</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.45646314894187</v>
+        <v>-3.956794940103112</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.493340046161103</v>
+        <v>-3.51940733079278</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-5.032652705100855</v>
+        <v>-5.484960320971236</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.743666760680862</v>
+        <v>-0.7480887946793695</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.514707540980648</v>
+        <v>-0.5469991475116195</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.61511505220028</v>
+        <v>-0.5696588332042234</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.6662372782399004</v>
+        <v>-0.6969257689867449</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.867492702824763</v>
+        <v>1.741706377619089</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.647990452907711</v>
+        <v>4.279012932608749</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.798510417893246</v>
+        <v>3.717815508451317</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.4732365989565992</v>
+        <v>0.4570289861963788</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.564264756905614</v>
+        <v>0.545046089495089</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.380054272448437</v>
+        <v>1.541741186501381</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.577786871322876</v>
+        <v>1.425047858241116</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.1502606275169572</v>
+        <v>0.1502530036022344</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-1.51459304484757</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-1.734311400681513</v>
+        <v>-1.734311400681512</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.2145954195962305</v>
@@ -749,7 +749,7 @@
         <v>-0.2152440350876477</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.279379521026671</v>
+        <v>-0.2793795210266709</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-4.691770459760254</v>
+        <v>-4.37599429075011</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-1.600791118192811</v>
+        <v>-1.657814783783559</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-4.860182951920339</v>
+        <v>-4.87660430450345</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-4.711308192225137</v>
+        <v>-4.192219141272704</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5408055683596987</v>
+        <v>-0.5362098818819012</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3336743098804175</v>
+        <v>-0.3301064441823846</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.5441080549005304</v>
+        <v>-0.5513764071748125</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.5710346286513978</v>
+        <v>-0.5383534446051437</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.651775263135614</v>
+        <v>1.413848523425868</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.829301661443448</v>
+        <v>3.683404917447865</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.340899623787652</v>
+        <v>1.411158810312913</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6722488173626114</v>
+        <v>0.6225731889962802</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.3287720004755228</v>
+        <v>0.3250093138732365</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.345129669758643</v>
+        <v>1.393951823646189</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2472775228542091</v>
+        <v>0.2548843499801227</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1475637409514278</v>
+        <v>0.1356825592092879</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.603383824704742</v>
+        <v>-2.655708023290376</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.819038872696383</v>
+        <v>-3.310333816728714</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-5.839272157099739</v>
+        <v>-5.94667021080935</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.146406341700126</v>
+        <v>-2.128932293992468</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.4529372693079662</v>
+        <v>-0.4315621438422119</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.4626296154140228</v>
+        <v>-0.4137554218705459</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.8081373876966161</v>
+        <v>-0.8106437864717311</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.2819799215385255</v>
+        <v>-0.2867552283180616</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.849757592196569</v>
+        <v>4.253430960152419</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.106051913377385</v>
+        <v>4.041792194704843</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4237038770363165</v>
+        <v>0.3582803892946428</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.693044900755294</v>
+        <v>3.586751245821985</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.286111534425501</v>
+        <v>1.698100868155179</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9219396905415718</v>
+        <v>0.9857882281322036</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1571449160284514</v>
+        <v>0.1855039601283938</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.8326701487706031</v>
+        <v>0.7756065862053667</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.077217957361719</v>
+        <v>-0.9848760875336007</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-6.185410515664474</v>
+        <v>-6.149632043371004</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.5232850591145127</v>
+        <v>-0.0507491595607454</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-4.117136271396363</v>
+        <v>-4.074683666482725</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2423391085636484</v>
+        <v>-0.2285803704926733</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.6391423274274421</v>
+        <v>-0.637476460748913</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1181328756517943</v>
+        <v>-0.01829492795227182</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.5402351025634186</v>
+        <v>-0.5290593736680448</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>5.159905835386896</v>
+        <v>4.799241823697053</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.243971304332115</v>
+        <v>1.083149970655085</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>8.1446138502314</v>
+        <v>8.290809352577464</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.600032740796809</v>
+        <v>1.681291354859626</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.938487652657379</v>
+        <v>1.701640701975929</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2806032567138987</v>
+        <v>0.2617906488037864</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.683115518171447</v>
+        <v>1.636109907420573</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4168422610482054</v>
+        <v>0.4297116104794367</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>-1.658909868395856</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.8422725203535965</v>
+        <v>0.8422725203535937</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.3666511755692559</v>
@@ -1049,7 +1049,7 @@
         <v>-0.2750108567278221</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.2556001350916416</v>
+        <v>0.2556001350916408</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-7.655298548148994</v>
+        <v>-7.709130521199348</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-4.912080121169041</v>
+        <v>-5.19542988678761</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-6.101692117475981</v>
+        <v>-5.992470087144267</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.814360421930721</v>
+        <v>-1.667451955299624</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.7374238519123263</v>
+        <v>-0.7271537332484302</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.5778070400153702</v>
+        <v>-0.5961739287360769</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.6984764771937967</v>
+        <v>-0.7110435256983606</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.3729291510268916</v>
+        <v>-0.3878252771729509</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.865869334367514</v>
+        <v>1.777597572728718</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.486840796517765</v>
+        <v>4.642843286056849</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.405276469635911</v>
+        <v>2.644724400460536</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.182398983470235</v>
+        <v>3.175133629325343</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.387016763540479</v>
+        <v>0.4660354171970537</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.207122481217115</v>
+        <v>1.252548339396769</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6594938894061384</v>
+        <v>0.7553920461093303</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.761962710650641</v>
+        <v>1.528741398591991</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>2.728175525402461</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>-0.5584038343481778</v>
+        <v>-0.5584038343481819</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.07668259800077094</v>
@@ -1149,7 +1149,7 @@
         <v>0.562985549476772</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>-0.09256750662221783</v>
+        <v>-0.09256750662221851</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-3.345253166942643</v>
+        <v>-3.613210474756064</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-4.20467791922878</v>
+        <v>-3.803318955012042</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-1.852025018284253</v>
+        <v>-1.321360860194985</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-3.230162528335937</v>
+        <v>-3.252862016714037</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.4129972936865388</v>
+        <v>-0.444218771470325</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.5134870371071093</v>
+        <v>-0.4579774465944651</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.3004885973094008</v>
+        <v>-0.258117794027966</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.4312156165644747</v>
+        <v>-0.434391492261186</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>4.574540199738008</v>
+        <v>4.813189099449804</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>4.280782992267771</v>
+        <v>4.944385429979097</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>6.593997320037552</v>
+        <v>7.233388891616914</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>2.111920971404788</v>
+        <v>2.11937928316523</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.959826975203725</v>
+        <v>1.076351731420125</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.9472556903979231</v>
+        <v>1.142797760113226</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>2.035593125827628</v>
+        <v>2.419949029106371</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.4770215019846866</v>
+        <v>0.4619811127116036</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>-1.691410738457352</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.2160107486472329</v>
+        <v>0.2160107486472322</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1225905929720445</v>
@@ -1249,7 +1249,7 @@
         <v>-0.3139840514833698</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.03706321126156906</v>
+        <v>0.03706321126156893</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.870500407862604</v>
+        <v>-2.011833745518611</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-5.604846067390789</v>
+        <v>-5.878408249321664</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-4.171486486056179</v>
+        <v>-4.460541868511289</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.214552978789398</v>
+        <v>-2.049894857972268</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.3458112450442957</v>
+        <v>-0.3574834696992992</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.6449356063652139</v>
+        <v>-0.6734239487267927</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.6206913298116572</v>
+        <v>-0.6219442533069185</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.2944823960828263</v>
+        <v>-0.2980368771934079</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.76506627181497</v>
+        <v>2.664255795536857</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-0.5427259734480372</v>
+        <v>-0.7410137504938319</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.7353396331111323</v>
+        <v>0.457371028258936</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.173961540801094</v>
+        <v>2.464731154322669</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.8818198132747745</v>
+        <v>0.8187955124766759</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>-0.04560291101108462</v>
+        <v>-0.05592656608474797</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2128557022881263</v>
+        <v>0.1199453629558331</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.4529388084896501</v>
+        <v>0.5342756154310342</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1337,7 @@
         <v>-1.464814611280252</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>-0.07198305963458662</v>
+        <v>-0.07198305963458593</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>-0.02117728505293986</v>
@@ -1349,7 +1349,7 @@
         <v>-0.2209604560316535</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>-0.01227073294166615</v>
+        <v>-0.01227073294166603</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-2.557459485092961</v>
+        <v>-2.284092818688492</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-1.560838482840122</v>
+        <v>-1.472410087441395</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-3.694194257134093</v>
+        <v>-4.208750441180296</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-1.857862686403977</v>
+        <v>-2.011380365396815</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3644089730302787</v>
+        <v>-0.3385872497537894</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.3773514577532502</v>
+        <v>-0.3604122122060026</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.4777655919181293</v>
+        <v>-0.5159846720724319</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.2787953814859859</v>
+        <v>-0.2909386960726054</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>2.191502863561732</v>
+        <v>2.27562953659442</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>2.204768035041918</v>
+        <v>2.398721526975128</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.8581078657608656</v>
+        <v>0.861961972751192</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>1.950012507428176</v>
+        <v>1.899500291249046</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.4811396979195839</v>
+        <v>0.490029899856341</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.037625743555211</v>
+        <v>1.10409708130884</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1661214359509026</v>
+        <v>0.167208996572189</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.4104017324615484</v>
+        <v>0.4017285702040487</v>
       </c>
     </row>
     <row r="28">
@@ -1437,7 +1437,7 @@
         <v>-0.5953590561482327</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>-0.4545093717036646</v>
+        <v>-0.4545093717036659</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>-0.02173103653289409</v>
@@ -1449,7 +1449,7 @@
         <v>-0.09950053143951215</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>-0.07859759416490993</v>
+        <v>-0.07859759416491016</v>
       </c>
     </row>
     <row r="29">
@@ -1460,28 +1460,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.292465212399342</v>
+        <v>-1.152316306137143</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.568350449874599</v>
+        <v>-1.57155672387683</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-1.664925701464807</v>
+        <v>-1.782880033870968</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-1.376878866913052</v>
+        <v>-1.339568351675302</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>-0.2117236443949928</v>
+        <v>-0.1952455834398235</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>-0.2673566855544878</v>
+        <v>-0.2560139555682331</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>-0.2518679517315889</v>
+        <v>-0.2741096695318161</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>-0.2194445414180947</v>
+        <v>-0.2115865968964917</v>
       </c>
     </row>
     <row r="30">
@@ -1492,28 +1492,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.9639823668222025</v>
+        <v>1.028164217646398</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.5312706113178727</v>
+        <v>0.664742418935293</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.4589278604347778</v>
+        <v>0.4659171060602457</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.5418725420032124</v>
+        <v>0.585119128317701</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.2079160524783315</v>
+        <v>0.2117839691920952</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1073192933219721</v>
+        <v>0.1437650220822528</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.08900102158032649</v>
+        <v>0.09487923807465848</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.1037359580234681</v>
+        <v>0.1140488360999135</v>
       </c>
     </row>
     <row r="31">
